--- a/ope.ed.gov/2003/criminal-offenses-reported-by-local-state-police-virginia-colleges-and-universities-crime-2003.xlsx
+++ b/ope.ed.gov/2003/criminal-offenses-reported-by-local-state-police-virginia-colleges-and-universities-crime-2003.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Reported by Local &amp; State Police</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -133,98 +130,93 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2003.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c s="1" r="A3">
-        <v>2003.0</v>
-      </c>
-      <c s="1" r="B3">
-        <v>233277.0</v>
-      </c>
-      <c t="s" s="1" r="C3">
         <v>16</v>
       </c>
-      <c s="1" r="D3">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E3">
-        <v>17</v>
-      </c>
-      <c s="1" r="F3">
+      <c s="1" r="F2">
         <v>9219.0</v>
       </c>
-      <c s="1" r="G3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I3">
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
         <v>3.0</v>
       </c>
-      <c s="1" r="J3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K3">
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
         <v>4.0</v>
       </c>
-      <c s="1" r="L3">
+      <c s="1" r="L2">
         <v>11.0</v>
       </c>
-      <c s="1" r="M3">
+      <c s="1" r="M2">
         <v>14.0</v>
       </c>
-      <c s="1" r="N3">
+      <c s="1" r="N2">
         <v>7.0</v>
       </c>
-      <c s="1" r="O3">
+      <c s="1" r="O2">
         <v>0.0</v>
       </c>
     </row>
